--- a/database/sia/expdata/3002.xlsx
+++ b/database/sia/expdata/3002.xlsx
@@ -477,7 +477,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>10.6</v>
+        <v>3.65</v>
       </c>
       <c r="B2">
         <v>0.574</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>10.6</v>
+        <v>3.65</v>
       </c>
       <c r="B3">
         <v>0.579</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>10.6</v>
+        <v>3.65</v>
       </c>
       <c r="B4">
         <v>0.57</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>10.6</v>
+        <v>3.65</v>
       </c>
       <c r="B5">
         <v>0.571</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>10.6</v>
+        <v>3.65</v>
       </c>
       <c r="B6">
         <v>0.584</v>

--- a/database/sia/expdata/3002.xlsx
+++ b/database/sia/expdata/3002.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/TMD-PHENO-REPOS/fitpack/database/sia/expdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>Q</t>
   </si>
@@ -61,20 +74,23 @@
     <t>pt</t>
   </si>
   <si>
-    <t>bes3</t>
-  </si>
-  <si>
     <t>pi</t>
   </si>
   <si>
     <t>AUL-0-PT</t>
+  </si>
+  <si>
+    <t>BESIII</t>
+  </si>
+  <si>
+    <t>Q2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -122,13 +138,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -137,6 +167,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -183,12 +218,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -215,14 +250,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -249,6 +285,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,14 +461,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,225 +513,248 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3.65</v>
       </c>
       <c r="B2">
-        <v>0.574</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2">
-        <v>0.133</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="J2">
-        <v>0.009299999999999999</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="K2">
-        <v>0.0021</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="L2">
-        <v>0.0122</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="M2">
-        <v>0.291</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="N2">
-        <v>0.348</v>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="O2">
+        <f>A2^2</f>
+        <v>13.3225</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3.65</v>
       </c>
       <c r="B3">
-        <v>0.579</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3">
         <v>0.253</v>
       </c>
       <c r="J3">
-        <v>0.0081</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="K3">
-        <v>0.0034</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="L3">
-        <v>0.0279</v>
+        <v>2.7900000000000001E-2</v>
       </c>
       <c r="M3">
-        <v>0.285</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="N3">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O6" si="0">A3^2</f>
+        <v>13.3225</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3.65</v>
       </c>
       <c r="B4">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4">
-        <v>0.405</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="J4">
-        <v>0.0072</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="K4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="L4">
-        <v>0.0241</v>
+        <v>2.41E-2</v>
       </c>
       <c r="M4">
-        <v>0.327</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="N4">
-        <v>0.346</v>
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>13.3225</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3.65</v>
       </c>
       <c r="B5">
-        <v>0.571</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5">
         <v>0.61</v>
       </c>
       <c r="J5">
-        <v>0.008699999999999999</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="K5">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="L5">
-        <v>0.0516</v>
+        <v>5.16E-2</v>
       </c>
       <c r="M5">
-        <v>0.453</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="N5">
-        <v>0.349</v>
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>13.3225</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3.65</v>
       </c>
       <c r="B6">
-        <v>0.584</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6">
-        <v>0.923</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="J6">
-        <v>0.0249</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="K6">
-        <v>0.0133</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="L6">
-        <v>0.09130000000000001</v>
+        <v>9.1300000000000006E-2</v>
       </c>
       <c r="M6">
-        <v>0.646</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="N6">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>13.3225</v>
       </c>
     </row>
   </sheetData>

--- a/database/sia/expdata/3002.xlsx
+++ b/database/sia/expdata/3002.xlsx
@@ -86,7 +86,7 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="14"/>
@@ -188,7 +188,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -211,9 +211,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -283,14 +280,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office Theme">
@@ -385,9 +382,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -467,7 +464,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -495,10 +492,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="Helvetica"/>
+            <a:ea typeface="Helvetica"/>
+            <a:cs typeface="Helvetica"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -754,9 +751,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1044,7 +1041,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1072,10 +1069,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="Helvetica"/>
+            <a:ea typeface="Helvetica"/>
+            <a:cs typeface="Helvetica"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1326,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1637,79 +1634,11 @@
         <v>112.36</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>